--- a/biology/Botanique/Agave_victoriae-reginae/Agave_victoriae-reginae.xlsx
+++ b/biology/Botanique/Agave_victoriae-reginae/Agave_victoriae-reginae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agave victoriae-reginae est une espèce végétale de la famille des Agaves.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte le nom de la Reine Victoria qui a régné en Angleterre au XIXe siècle.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En général, elle forme des rosettes compactes de 30 cm environ, soit une taille inférieure à celle des autres espèces de la famille.
 La rosette est composée de feuilles courtes, rigides, épaisses, de section triangulaire et de couleur vert foncé. Elles sont terminées par une pointe de une à 3 épines de 1,5 à 3 cm de long. Par contre, il n'y a pas d'épines sur le bord des feuilles à l'inverse de la plupart des agaves.
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire du désert de Chihuahua au Mexique.
 </t>
@@ -606,7 +624,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut s'hybrider avec d'autres espèces d'agaves.
 Elle s'acclimate parfaitement dans les jardins de la Côte d'Azur.
